--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0020-006 - Admin SLN menambahkan data hari libur.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0020-006 - Admin SLN menambahkan data hari libur.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988ABBF8-294B-4A81-B11D-8F2F9478A82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D889E42-EC7A-4B07-9CB3-F7A4C3021FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0312" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0020" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -95,9 +95,6 @@
     <t>Parameter Hari Libur</t>
   </si>
   <si>
-    <t>DGS-327</t>
-  </si>
-  <si>
     <t>•Gagal menambahakan data hari libur Muncul popup data yang di masukan sudah ada</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>1 Februari 2022</t>
+  </si>
+  <si>
+    <t>SCD0020-006</t>
   </si>
 </sst>
 </file>
@@ -538,13 +538,13 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -622,16 +622,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="21">
         <v>52326</v>
@@ -652,10 +652,10 @@
         <v>2022/02/01</v>
       </c>
       <c r="M2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="O2" s="16"/>
       <c r="P2" s="12"/>
